--- a/EU Free Shipping Trails/Updated_SKU_Data_Corrected.xlsx
+++ b/EU Free Shipping Trails/Updated_SKU_Data_Corrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olcay\Desktop\TASKS\TrakRacer\EU Free Shipping Trails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olcay\Desktop\ALL TASKS\EU Free Shipping Trails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B2D535-9FBA-4004-B422-E2002B211BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD11B1D-6631-4AA8-B67E-4DA698A8A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3282,12 +3282,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3317,11 +3323,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3626,14 +3633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="M412" sqref="M412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="29.26953125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="6" max="6" width="50.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="56.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.36328125" customWidth="1"/>
     <col min="14" max="14" width="40.6328125" customWidth="1"/>
     <col min="15" max="15" width="38.36328125" customWidth="1"/>
@@ -10884,53 +10895,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149">
+    <row r="149" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="2">
         <v>41639321534658</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>40</v>
       </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149">
+      <c r="E149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="2">
         <v>488</v>
       </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2">
         <v>15</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="2">
         <v>11.404068499999999</v>
       </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
+      <c r="O149" s="2">
+        <v>0</v>
+      </c>
+      <c r="P149" s="2">
         <v>1</v>
       </c>
-      <c r="Q149" t="s">
+      <c r="Q149" s="2" t="s">
         <v>26</v>
       </c>
     </row>
